--- a/src/main/resources/AccountAutoTestData.xlsx
+++ b/src/main/resources/AccountAutoTestData.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId4"/>
+    <sheet name="Maps" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Test No</t>
   </si>
@@ -121,6 +122,21 @@
   </si>
   <si>
     <t>2125558985</t>
+  </si>
+  <si>
+    <t>GHU</t>
+  </si>
+  <si>
+    <t>Fvf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hvkbl</t>
+  </si>
+  <si>
+    <t>567hh</t>
+  </si>
+  <si>
+    <t>Nb nm</t>
   </si>
 </sst>
 </file>
@@ -177,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -302,13 +318,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
@@ -367,6 +398,15 @@
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1722,4 +1762,365 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.57143" defaultRowHeight="16.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="6.28906" style="20" customWidth="1"/>
+    <col min="2" max="2" width="5.73438" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14.7344" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.8125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.86719" style="20" customWidth="1"/>
+    <col min="6" max="6" width="7.57812" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.8672" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.8672" style="20" customWidth="1"/>
+    <col min="9" max="9" width="11.5781" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12.4453" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18.4453" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.73438" style="20" customWidth="1"/>
+    <col min="13" max="13" width="16.4453" style="20" customWidth="1"/>
+    <col min="14" max="14" width="11.6641" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="7.57812" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.35" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" ht="16.1" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" ht="16.1" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" ht="16.1" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" ht="16.1" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" ht="16.1" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" t="s" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" t="s" s="22">
+        <v>37</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" t="s" s="22">
+        <v>38</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" location="" tooltip="" display="test@testng.com"/>
+    <hyperlink ref="G3" r:id="rId2" location="" tooltip="" display="test@testng.com"/>
+    <hyperlink ref="G4" r:id="rId3" location="" tooltip="" display="test@testng.com"/>
+    <hyperlink ref="G5" r:id="rId4" location="" tooltip="" display="test@testng.com"/>
+    <hyperlink ref="G6" r:id="rId5" location="" tooltip="" display="test@testng.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>